--- a/biology/Botanique/Tillandsia_matudae/Tillandsia_matudae.xlsx
+++ b/biology/Botanique/Tillandsia_matudae/Tillandsia_matudae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia matudae L.B.Sm. est une plante de la famille des Bromeliaceae.
 Le terme matudae/matudai est une dédicace à Eizi Matuda, botaniste mexicain d’origine japonaise, collecteur de la plante.
@@ -512,11 +524,13 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia matudae L.B.Sm., in Contr. U.S. Natl. Herb. 29(7): 278, fig. 3 (1949) (pro « matudai »)
 Nb : la correction de matudai en matudae, suivie ici car usuelle et appliquée par l’IPNI, est très discutable si l’on se réfère aux règles de l’ICBN (cf.).
-Diagnose originale[1] :
+Diagnose originale :
 « Acaulis; foliis inflorescentiam multo superantibus, vaginis haud inflatis, laminis acuminatis; inflorescentia digitata subpenduIa; bractearum primarium vaginis quam spicis brevioribus; bracteis florigeris imbricatis, sepala superantibus; sepalis liberis; staminibus inclusis. »
 Type :
 leg. E. Matuda, n° 5811, 1945-06-09 ; « by carriage-road between Conitán and Amatenango del Yalle, State of Chiapas, Mexico, altitude 2,100 meters », « Camino carretera entre Comitan y Amatenango del Valle, 2100 m. » ; Holotypus GH (GH 6014)
@@ -549,7 +563,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,11 +623,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[2],[3].
-Habitat : sur Cupressus[2].
-Altitude : 2000-2200 m[2],[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte,.
+Habitat : sur Cupressus.
+Altitude : 2000-2200 m,.</t>
         </is>
       </c>
     </row>
@@ -637,11 +657,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique centrale :
- Mexique[3]
-Chiapas[1],[2]</t>
+ Mexique
+Chiapas,</t>
         </is>
       </c>
     </row>
@@ -670,6 +692,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
